--- a/ScenariosTest_Codington.xlsx
+++ b/ScenariosTest_Codington.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="-15" windowWidth="10740" windowHeight="5040" tabRatio="422" activeTab="1"/>
+    <workbookView xWindow="10905" yWindow="-15" windowWidth="4365" windowHeight="5040" tabRatio="422" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="4" r:id="rId1"/>
@@ -12,15 +12,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Cover Sheet'!$A$1:$N$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Test Scenarios'!$A$1:$G$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Test Scenarios'!$A$1:$G$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Test Scenarios'!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="145620"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="200">
   <si>
     <t>Module 12 - Temperature Converter System</t>
   </si>
@@ -107,9 +107,6 @@
     <t>TCS.UT.AP331.TC.002</t>
   </si>
   <si>
-    <t>END OF TEST SCENARIOS</t>
-  </si>
-  <si>
     <t>TCS.UT.AP331.TS.002</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>setDNI(52.101.041-S)</t>
   </si>
   <si>
-    <t>Se asigna el valor del parametro al dni del Visitor</t>
-  </si>
-  <si>
     <t>TCS.UT.AP331.TS.003</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>Se lanza una DomainException con el mensaje ""</t>
   </si>
   <si>
-    <t>TCS.UT.AP331.TS.003.02</t>
-  </si>
-  <si>
     <t>Passed one parameter (Dni NO  VALID (letra  invalida)</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
     <t>setFirstName(FirstName no VALIDO)</t>
   </si>
   <si>
-    <t>Se asigna el valor del parametro al first name del Visitor</t>
-  </si>
-  <si>
     <t>setLastName(LastName valido)</t>
   </si>
   <si>
@@ -225,13 +213,464 @@
   </si>
   <si>
     <t>Passed one parameter (First Name NO  VALID (formato invalido)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.004</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.005</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.006</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.007</t>
+  </si>
+  <si>
+    <t>Se lanza una DomainException con el mensaje "Could you repeat the last name please"</t>
+  </si>
+  <si>
+    <t>Se lanza una DomainException con el mensaje "Could you repeat the first name please"</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al first name del User</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al dni del User</t>
+  </si>
+  <si>
+    <t>setPassword(Password no VALIDO)</t>
+  </si>
+  <si>
+    <t>setPassword(Password valido)</t>
+  </si>
+  <si>
+    <t>Se lanza una DomainException con el mensaje "Could you repeat the password please"</t>
+  </si>
+  <si>
+    <t>setConfirmPassword(ConfirmPassword valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ConfirmPassword VALID)</t>
+  </si>
+  <si>
+    <t>setConfirmPassword(ConfirmPassword no VALIDO)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (Password NO  VALID (formato invalido)</t>
+  </si>
+  <si>
+    <t>Se lanza una DomainException con el mensaje "Could you repeat the password please, it does not the same as the password"</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.008</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.009</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.010</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.011</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.004.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.005.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.006.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.007.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.008.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.009.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.010.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.011.01</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ConfirmPassword NO  VALID (no coincidencia))</t>
+  </si>
+  <si>
+    <t>setUsername(Username valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (User Name VALID)</t>
+  </si>
+  <si>
+    <t>setUsername(Username no VALIDO)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (User Name NO  VALID (formato invalido)</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al confirm password del User</t>
+  </si>
+  <si>
+    <t>Passed one parameter (Password VALID)</t>
+  </si>
+  <si>
+    <t>Se lanza una DomainException con el mensaje "Please, could you repeat your user name? It is not valid"</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al username del User</t>
+  </si>
+  <si>
+    <t>setChangePassword(ChangePassword valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ChangePassword VALID)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ChangePassword NO  VALID (formato invalido)</t>
+  </si>
+  <si>
+    <t>setConfirmChangePassword(ConfirmChangePassword valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ConfirmChangePassword VALID)</t>
+  </si>
+  <si>
+    <t>setConfirmChangePassword(ConfirmChangePassword no VALIDO)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ConfirmChangePassword NO  VALID (no coincidencia))</t>
+  </si>
+  <si>
+    <t>setChangePassword(ChangePassword no VALIDO)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.012.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.013.01</t>
+  </si>
+  <si>
+    <t>setBookEvent(BookEvent valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (BookEvent VALID)</t>
+  </si>
+  <si>
+    <t>setBookEvent(BookEvent no VALIDO)</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al Book Event de Visitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lanza una DomainException con el mensaje "Registration is not completed successfully"
+ </t>
+  </si>
+  <si>
+    <t>Passed one parameter (BookEvent NO  VALID (mal ejecutado))</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.013.02</t>
+  </si>
+  <si>
+    <t>Passed one parameter (BookEvent NO  VALID (sitios no disponibles))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lanza una DomainException con el mensaje "There are not vacances, It is completed"
+ </t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.014.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.015.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.015.02</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.015</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.014</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.013</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.012</t>
+  </si>
+  <si>
+    <t>setDeleteBookEvent(DeleteBookEvent valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteBookEvent VALID)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteBookEvent NO  VALID (mal ejecutado))</t>
+  </si>
+  <si>
+    <t>setDeleteBookEvent(DeleteBookEvent no VALIDO)</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al Delete Book Event de Visitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The remove is not completed succesfully"
+ </t>
+  </si>
+  <si>
+    <t>End of Scenario</t>
+  </si>
+  <si>
+    <t>setModifyPersonalInformation(ModifyPersonalInformation valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyPersonalInformation VALID)</t>
+  </si>
+  <si>
+    <t>setModifyPersonalInformation(ModifyPersonalInformation no VALIDO)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyPersonalInformation NO  VALID (formato no valido))</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al ModifyPersonalInformation de Visitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The information is not changed. Could you repeat it, please?"
+ </t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.016.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.017.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.016</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.017</t>
+  </si>
+  <si>
+    <t>Unit Test Stage - Admin</t>
+  </si>
+  <si>
+    <t>Initialize Admin</t>
+  </si>
+  <si>
+    <t>Passed one  parameters (Admin)</t>
+  </si>
+  <si>
+    <t>Admin()</t>
+  </si>
+  <si>
+    <t>Admin(Admin)</t>
+  </si>
+  <si>
+    <t>Admin(null)</t>
+  </si>
+  <si>
+    <t>setCreateEvent(CreateEvent valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (CreateEvent VALID)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (CreateEvent NO  VALID (mal ejecutado))</t>
+  </si>
+  <si>
+    <t>setCreateEvent(CreateEvent no VALIDO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The new event is not created"
+ </t>
+  </si>
+  <si>
+    <t>setDeleteEvent(DeleteEvent valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteEvent VALID)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteEvent NO  VALID (mal ejecutado))</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al Delete  Event de Visitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The event is not removed"
+ </t>
+  </si>
+  <si>
+    <t>setDeleteEvent(DeleteEvent no VALIDO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lanza una DomainException con el mensaje "You could not remove the event, because there are targeted visitors"
+ </t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteEvent NO  VALID ( hay ocupación))</t>
+  </si>
+  <si>
+    <t>setModifyEvent(ModifyEvent valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyEvent VALID)</t>
+  </si>
+  <si>
+    <t>setModifyEvent(ModifyEvent no VALIDO)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyEvent NO  VALID (mal ejecutado))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The event is not modified"
+ </t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al Modify Event de Visitor</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.018</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.019</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.018.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.019.01</t>
+  </si>
+  <si>
+    <t>setSearchEvent(SearchEvent valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (SearchEvent VALID)</t>
+  </si>
+  <si>
+    <t>setSearchEvent(SearchEvent no VALIDO)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (SearchEvent NO  VALID (no existe))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The event you look for it does not exist"
+ </t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.017.02</t>
+  </si>
+  <si>
+    <t>Passed one parameter (SearchEvent NO  VALID (fallo base de datos))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The page has problems, sorry we are resolving it. Please try again in few minutes"
+ </t>
+  </si>
+  <si>
+    <t>setModifyPlace(ModifyPlace valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyPlace VALID)</t>
+  </si>
+  <si>
+    <t>setModifyPlacet(ModifyPlace no VALIDO)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyPlace NO  VALID (mal ejecutado))</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al ModifyPlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The place is not modified"
+ </t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteBookEvent NO  VALID (no registrado))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lanza una DomainException con el mensaje "You are not register in the event so you could not remove from it"
+ </t>
+  </si>
+  <si>
+    <t>Passed one parameter (user register )</t>
+  </si>
+  <si>
+    <t>Register User(User no VALIDO)</t>
+  </si>
+  <si>
+    <t>Se lanza una DomainException con el mensaje "You are register so you could not register again"</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.013.03</t>
+  </si>
+  <si>
+    <t>Passed one parameter (BookEvent NO  VALID (registrado ya))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lanza una DomainException con el mensaje "You could not book in the event, because you are already register."
+ </t>
+  </si>
+  <si>
+    <t>Passed one parameter (User Name NO  VALID (username usado)</t>
+  </si>
+  <si>
+    <t>Se lanza una DomainException con el mensaje "Please, could you change your username because it is used for another user"</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.020</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.020.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.021</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.021.01</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteVisitor VALID)</t>
+  </si>
+  <si>
+    <t>setDeleteVisitor(DeleteVisitor VALIDO )</t>
+  </si>
+  <si>
+    <t>setDeleteVisitor(DeleteVisitor no VALIDO )</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteVisitor NO  VALID (no ejecutado))</t>
+  </si>
+  <si>
+    <t>Se lanza una DomainException con el mensaje "The delete is not execute. Could you do it in few minutes, please?"</t>
+  </si>
+  <si>
+    <t>Se asigna el valor del parametro al DeleteVisitor de Visitor</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.004.02</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.0010.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.010.02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -390,7 +829,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -508,17 +947,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -535,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -584,9 +1012,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -614,15 +1039,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,7 +1142,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -748,7 +1176,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -924,14 +1351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="9.140625" style="4"/>
     <col min="7" max="7" width="7.140625" style="4" customWidth="1"/>
@@ -939,7 +1366,7 @@
     <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="21">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -955,7 +1382,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -971,7 +1398,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -987,7 +1414,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1002,7 +1429,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1017,7 +1444,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1032,7 +1459,7 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1047,7 +1474,7 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="18.75">
       <c r="A8" s="9"/>
       <c r="B8" s="14" t="s">
         <v>0</v>
@@ -1064,206 +1491,206 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="18.75">
       <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="3" customHeight="1">
       <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.75">
       <c r="B12" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+      <c r="B15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
+    <row r="16" spans="1:16">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
+    <row r="17" spans="2:16">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
+    <row r="18" spans="2:16">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
+    <row r="19" spans="2:16">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="27"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="28"/>
+    <row r="20" spans="2:16">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="27"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
+    <row r="21" spans="2:16">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="27"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
+    <row r="22" spans="2:16">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="28"/>
+    <row r="23" spans="2:16">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="28"/>
+    <row r="24" spans="2:16">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
     </row>
-    <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="31"/>
+    <row r="25" spans="2:16" ht="15" customHeight="1">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="30"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
@@ -1283,14 +1710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" style="12" customWidth="1"/>
@@ -1302,15 +1729,15 @@
     <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34.5" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
@@ -1333,20 +1760,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="15">
       <c r="A4" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="13"/>
       <c r="B5" s="13" t="s">
         <v>13</v>
@@ -1358,460 +1785,1897 @@
         <v>15</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="19"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="A10" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="25.5">
       <c r="A11" s="13"/>
       <c r="B11" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="A14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="25.5">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" ht="15">
+      <c r="A16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="15">
+      <c r="A18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="25.5">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" ht="15">
+      <c r="A20" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="A22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" ht="25.5">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" ht="30">
+      <c r="A24" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" ht="25.5">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="15">
+      <c r="A28" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="15">
+      <c r="A30" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7" ht="38.25">
+      <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>41</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7" ht="38.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7" ht="38.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15">
       <c r="A34" s="18" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15">
       <c r="A36" s="18" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="38.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7" ht="38.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7" ht="15">
+      <c r="A39" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="15">
+      <c r="A41" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" ht="38.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" ht="38.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G43" s="13"/>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" ht="30">
+      <c r="A46" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="1:7" ht="38.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="15">
+      <c r="A48" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7" ht="25.5">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" s="13"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="31"/>
+    </row>
+    <row r="53" spans="1:7" s="35" customFormat="1">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+    </row>
+    <row r="54" spans="1:7" s="35" customFormat="1">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+    </row>
+    <row r="55" spans="1:7" s="35" customFormat="1">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A56" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A57" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+    </row>
+    <row r="62" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A62" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="19"/>
+    </row>
+    <row r="63" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G63" s="13"/>
+    </row>
+    <row r="64" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A64" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
+    </row>
+    <row r="65" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G65" s="13"/>
+    </row>
+    <row r="66" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A66" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" s="13"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="20"/>
+      <c r="B68" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="21"/>
+    </row>
+    <row r="69" spans="1:7" ht="15">
+      <c r="A69" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="19"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="1:7" ht="15">
+      <c r="A71" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="19"/>
+    </row>
+    <row r="72" spans="1:7" ht="25.5">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="1:7" ht="15">
+      <c r="A73" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="19"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="1:7" ht="15">
+      <c r="A75" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="19"/>
+    </row>
+    <row r="76" spans="1:7" ht="25.5">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="18" t="s">
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="1:7" ht="15">
+      <c r="A77" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" spans="1:7" ht="15">
+      <c r="A79" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="19"/>
+    </row>
+    <row r="80" spans="1:7" ht="25.5">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" s="13"/>
+    </row>
+    <row r="81" spans="1:7" ht="25.5">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" spans="1:7" ht="15">
+      <c r="A82" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" s="13"/>
+    </row>
+    <row r="84" spans="1:7" ht="15">
+      <c r="A84" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="19"/>
+    </row>
+    <row r="85" spans="1:7" ht="25.5">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="1:7" ht="15">
+      <c r="A86" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="19"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="1:7" ht="15">
+      <c r="A88" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="19"/>
+    </row>
+    <row r="89" spans="1:7" ht="25.5">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G89" s="13"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="31"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.75">
+      <c r="A96" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A97" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="4" customFormat="1" ht="15">
+      <c r="A98" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="19"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+    </row>
+    <row r="102" spans="1:7" ht="15">
+      <c r="A102" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="19"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="13"/>
+      <c r="B103" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G103" s="13"/>
+    </row>
+    <row r="104" spans="1:7" ht="15">
+      <c r="A104" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="19"/>
+    </row>
+    <row r="105" spans="1:7" ht="25.5">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="13" t="s">
+      <c r="C105" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G105" s="13"/>
+    </row>
+    <row r="106" spans="1:7" ht="15">
+      <c r="A106" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="19"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G107" s="13"/>
+    </row>
+    <row r="108" spans="1:7" ht="15">
+      <c r="A108" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="13"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="19"/>
+    </row>
+    <row r="109" spans="1:7" ht="25.5">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G109" s="13"/>
+    </row>
+    <row r="110" spans="1:7" ht="15">
+      <c r="A110" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="19"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="13"/>
+      <c r="B111" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G111" s="13"/>
+    </row>
+    <row r="112" spans="1:7" ht="15">
+      <c r="A112" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="19"/>
+    </row>
+    <row r="113" spans="1:7" ht="25.5">
+      <c r="A113" s="13"/>
+      <c r="B113" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113" s="13"/>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G113" s="13"/>
+    </row>
+    <row r="114" spans="1:7" ht="15">
+      <c r="A114" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="19"/>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="13"/>
+      <c r="B115" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G115" s="13"/>
+    </row>
+    <row r="116" spans="1:7" ht="15">
+      <c r="A116" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="19"/>
+    </row>
+    <row r="117" spans="1:7" ht="25.5">
+      <c r="A117" s="13"/>
+      <c r="B117" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G117" s="13"/>
+    </row>
+    <row r="118" spans="1:7" ht="30">
+      <c r="A118" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="19"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="13"/>
+      <c r="B119" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G119" s="13"/>
+    </row>
+    <row r="120" spans="1:7" ht="30">
+      <c r="A120" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="19"/>
+    </row>
+    <row r="121" spans="1:7" ht="25.5">
+      <c r="A121" s="13"/>
+      <c r="B121" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="13"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G121" s="13"/>
+    </row>
+    <row r="122" spans="1:7" ht="15">
+      <c r="A122" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B122" s="18"/>
+      <c r="C122" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="19"/>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="13"/>
+      <c r="B123" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G123" s="13"/>
+    </row>
+    <row r="124" spans="1:7" ht="15">
+      <c r="A124" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="19"/>
+    </row>
+    <row r="125" spans="1:7" ht="25.5">
+      <c r="A125" s="13"/>
+      <c r="B125" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G125" s="13"/>
+    </row>
+    <row r="126" spans="1:7" ht="15">
+      <c r="A126" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="19"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="13"/>
+      <c r="B127" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G127" s="13"/>
+    </row>
+    <row r="128" spans="1:7" ht="15">
+      <c r="A128" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="19"/>
+    </row>
+    <row r="129" spans="1:7" ht="25.5">
+      <c r="A129" s="13"/>
+      <c r="B129" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G129" s="13"/>
+    </row>
+    <row r="130" spans="1:7" ht="38.25">
+      <c r="A130" s="13"/>
+      <c r="B130" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D130" s="13"/>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G130" s="13"/>
+    </row>
+    <row r="131" spans="1:7" ht="15">
+      <c r="A131" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="19"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="13"/>
+      <c r="B132" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G132" s="13"/>
+    </row>
+    <row r="133" spans="1:7" ht="15">
+      <c r="A133" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="18"/>
+      <c r="C133" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="19"/>
+    </row>
+    <row r="134" spans="1:7" ht="25.5">
+      <c r="A134" s="13"/>
+      <c r="B134" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D134" s="13"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G134" s="13"/>
+    </row>
+    <row r="135" spans="1:7" ht="30">
+      <c r="A135" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="19"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="13"/>
+      <c r="B136" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D136" s="13"/>
+      <c r="E136" s="13"/>
+      <c r="F136" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G136" s="13"/>
+    </row>
+    <row r="137" spans="1:7" ht="30">
+      <c r="A137" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" s="18"/>
+      <c r="C137" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="19"/>
+    </row>
+    <row r="138" spans="1:7" ht="38.25">
+      <c r="A138" s="13"/>
+      <c r="B138" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G138" s="13"/>
+    </row>
+    <row r="139" spans="1:7" ht="15">
+      <c r="A139" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="19"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="13"/>
+      <c r="B140" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D140" s="13"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G140" s="13"/>
+    </row>
+    <row r="141" spans="1:7" ht="15">
+      <c r="A141" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="19"/>
+    </row>
+    <row r="142" spans="1:7" ht="25.5">
+      <c r="A142" s="13"/>
+      <c r="B142" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D142" s="13"/>
+      <c r="E142" s="13"/>
+      <c r="F142" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G142" s="13"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="31"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D143" s="31"/>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A16:G16"/>
-  </mergeCells>
   <pageMargins left="0.31" right="0.28000000000000003" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/ScenariosTest_Codington.xlsx
+++ b/ScenariosTest_Codington.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="204">
   <si>
     <t>Module 12 - Temperature Converter System</t>
   </si>
@@ -155,9 +155,6 @@
     <t>TCS.UT.AP331.TS.003.01</t>
   </si>
   <si>
-    <t>Passed one parameter (Dni NO  VALID (formato invalido)</t>
-  </si>
-  <si>
     <t>setDNI(52.101.041.S)</t>
   </si>
   <si>
@@ -206,13 +203,7 @@
     <t>Passed one parameter (Last Name VALID)</t>
   </si>
   <si>
-    <t>Passed one parameter (Last NO  VALID (formato invalido)</t>
-  </si>
-  <si>
     <t>Passed one parameter (First Name VALID)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (First Name NO  VALID (formato invalido)</t>
   </si>
   <si>
     <t>TCS.UT.AP331.TS.004</t>
@@ -664,6 +655,27 @@
   </si>
   <si>
     <t>TCS.UT.AP331.TS.010.02</t>
+  </si>
+  <si>
+    <t>Passed one parameter (User Name NO  VALID (invalid format)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (Password NO  VALID (invalid format)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ChangePassword NO  VALID (invalid format)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyPersonalInformation NO  VALID (invalid format))</t>
+  </si>
+  <si>
+    <t>Passed one parameter (Dni NO  VALID (invalid format)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (First Name NO  VALID (invalid format)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (Last NO  VALID (invalid format)</t>
   </si>
 </sst>
 </file>
@@ -1012,6 +1024,19 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1039,19 +1064,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1507,190 +1519,190 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="27"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="27"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="27"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="27"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="27"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
     </row>
     <row r="25" spans="2:16" ht="15" customHeight="1">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="30"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="35"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
@@ -1713,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1731,10 +1743,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34.5" customHeight="1">
@@ -1830,7 +1842,7 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -1843,12 +1855,12 @@
         <v>19</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G9" s="13"/>
     </row>
@@ -1858,7 +1870,7 @@
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -1871,22 +1883,22 @@
         <v>33</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -1896,25 +1908,25 @@
     <row r="13" spans="1:7">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -1924,25 +1936,25 @@
     <row r="15" spans="1:7" ht="25.5">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="A16" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -1952,25 +1964,25 @@
     <row r="17" spans="1:7">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="15">
       <c r="A18" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -1980,25 +1992,25 @@
     <row r="19" spans="1:7" ht="25.5">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="15">
       <c r="A20" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -2008,25 +2020,25 @@
     <row r="21" spans="1:7">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="15">
       <c r="A22" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -2036,25 +2048,25 @@
     <row r="23" spans="1:7" ht="25.5">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="30">
       <c r="A24" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -2064,25 +2076,25 @@
     <row r="25" spans="1:7">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -2092,25 +2104,25 @@
     <row r="27" spans="1:7" ht="25.5">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="15">
       <c r="A28" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -2120,25 +2132,25 @@
     <row r="29" spans="1:7">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="15">
       <c r="A30" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -2148,55 +2160,55 @@
     <row r="31" spans="1:7" ht="38.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" ht="38.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" ht="38.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" ht="15">
       <c r="A34" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -2206,25 +2218,25 @@
     <row r="35" spans="1:7">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" ht="15">
       <c r="A36" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -2234,40 +2246,40 @@
     <row r="37" spans="1:7" ht="38.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="38.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" ht="15">
       <c r="A39" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -2277,25 +2289,25 @@
     <row r="40" spans="1:7">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" ht="15">
       <c r="A41" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -2305,40 +2317,40 @@
     <row r="42" spans="1:7" ht="38.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="38.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" ht="30">
       <c r="A44" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -2348,25 +2360,25 @@
     <row r="45" spans="1:7">
       <c r="A45" s="13"/>
       <c r="B45" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G45" s="13"/>
     </row>
     <row r="46" spans="1:7" ht="30">
       <c r="A46" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
@@ -2376,25 +2388,25 @@
     <row r="47" spans="1:7" ht="38.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15">
       <c r="A48" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
@@ -2404,25 +2416,25 @@
     <row r="49" spans="1:7">
       <c r="A49" s="13"/>
       <c r="B49" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>188</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" ht="15">
       <c r="A50" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B50" s="18"/>
       <c r="C50" s="18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
@@ -2432,61 +2444,61 @@
     <row r="51" spans="1:7" ht="25.5">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G52" s="31"/>
-    </row>
-    <row r="53" spans="1:7" s="35" customFormat="1">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-    </row>
-    <row r="54" spans="1:7" s="35" customFormat="1">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-    </row>
-    <row r="55" spans="1:7" s="35" customFormat="1">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7" s="26" customFormat="1">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" s="26" customFormat="1">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="1:7" s="26" customFormat="1">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" customHeight="1">
       <c r="A56" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="16.5" customHeight="1">
@@ -2518,7 +2530,7 @@
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -2537,7 +2549,7 @@
         <v>15</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
@@ -2554,7 +2566,7 @@
         <v>17</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
@@ -2571,7 +2583,7 @@
         <v>17</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
@@ -2582,7 +2594,7 @@
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
@@ -2595,16 +2607,16 @@
         <v>19</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G63" s="13"/>
     </row>
@@ -2636,13 +2648,13 @@
         <v>30</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" ht="16.5" customHeight="1">
       <c r="A66" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="18" t="s">
@@ -2656,48 +2668,48 @@
     <row r="67" spans="1:7">
       <c r="A67" s="13"/>
       <c r="B67" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E67" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="20"/>
       <c r="B68" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G68" s="21"/>
     </row>
     <row r="69" spans="1:7" ht="15">
       <c r="A69" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
@@ -2707,25 +2719,25 @@
     <row r="70" spans="1:7">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G70" s="13"/>
     </row>
     <row r="71" spans="1:7" ht="15">
       <c r="A71" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
@@ -2735,25 +2747,25 @@
     <row r="72" spans="1:7" ht="25.5">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
       <c r="F72" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" ht="15">
       <c r="A73" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B73" s="18"/>
       <c r="C73" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
@@ -2763,25 +2775,25 @@
     <row r="74" spans="1:7">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" ht="15">
       <c r="A75" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
@@ -2791,25 +2803,25 @@
     <row r="76" spans="1:7" ht="25.5">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" ht="15">
       <c r="A77" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
@@ -2819,25 +2831,25 @@
     <row r="78" spans="1:7">
       <c r="A78" s="13"/>
       <c r="B78" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G78" s="13"/>
     </row>
     <row r="79" spans="1:7" ht="15">
       <c r="A79" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
@@ -2847,40 +2859,40 @@
     <row r="80" spans="1:7" ht="25.5">
       <c r="A80" s="13"/>
       <c r="B80" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13"/>
       <c r="F80" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G80" s="13"/>
     </row>
     <row r="81" spans="1:7" ht="25.5">
       <c r="A81" s="13"/>
       <c r="B81" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" ht="15">
       <c r="A82" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
@@ -2890,25 +2902,25 @@
     <row r="83" spans="1:7">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G83" s="13"/>
     </row>
     <row r="84" spans="1:7" ht="15">
       <c r="A84" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B84" s="18"/>
       <c r="C84" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
@@ -2918,25 +2930,25 @@
     <row r="85" spans="1:7" ht="25.5">
       <c r="A85" s="13"/>
       <c r="B85" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7" ht="15">
       <c r="A86" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B86" s="18"/>
       <c r="C86" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
@@ -2946,25 +2958,25 @@
     <row r="87" spans="1:7">
       <c r="A87" s="13"/>
       <c r="B87" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13"/>
       <c r="F87" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G87" s="13"/>
     </row>
     <row r="88" spans="1:7" ht="15">
       <c r="A88" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
@@ -2974,32 +2986,32 @@
     <row r="89" spans="1:7" ht="25.5">
       <c r="A89" s="13"/>
       <c r="B89" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G89" s="13"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
     </row>
     <row r="96" spans="1:7" ht="15.75">
       <c r="A96" s="17" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="34.5" customHeight="1">
@@ -3031,7 +3043,7 @@
       </c>
       <c r="B98" s="18"/>
       <c r="C98" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="18"/>
@@ -3050,7 +3062,7 @@
         <v>15</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="13"/>
@@ -3061,13 +3073,13 @@
         <v>16</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D100" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
@@ -3084,7 +3096,7 @@
         <v>17</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
@@ -3095,7 +3107,7 @@
       </c>
       <c r="B102" s="18"/>
       <c r="C102" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="18"/>
@@ -3108,12 +3120,12 @@
         <v>19</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D103" s="13"/>
       <c r="E103" s="13"/>
       <c r="F103" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G103" s="13"/>
     </row>
@@ -3123,7 +3135,7 @@
       </c>
       <c r="B104" s="18"/>
       <c r="C104" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="18"/>
@@ -3136,22 +3148,22 @@
         <v>33</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7" ht="15">
       <c r="A106" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B106" s="18"/>
       <c r="C106" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
@@ -3161,25 +3173,25 @@
     <row r="107" spans="1:7">
       <c r="A107" s="13"/>
       <c r="B107" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7" ht="15">
       <c r="A108" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B108" s="18"/>
       <c r="C108" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
@@ -3189,25 +3201,25 @@
     <row r="109" spans="1:7" ht="25.5">
       <c r="A109" s="13"/>
       <c r="B109" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="1:7" ht="15">
       <c r="A110" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B110" s="18"/>
       <c r="C110" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
@@ -3217,25 +3229,25 @@
     <row r="111" spans="1:7">
       <c r="A111" s="13"/>
       <c r="B111" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G111" s="13"/>
     </row>
     <row r="112" spans="1:7" ht="15">
       <c r="A112" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B112" s="18"/>
       <c r="C112" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D112" s="18"/>
       <c r="E112" s="18"/>
@@ -3245,25 +3257,25 @@
     <row r="113" spans="1:7" ht="25.5">
       <c r="A113" s="13"/>
       <c r="B113" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" ht="15">
       <c r="A114" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B114" s="18"/>
       <c r="C114" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="18"/>
@@ -3273,25 +3285,25 @@
     <row r="115" spans="1:7">
       <c r="A115" s="13"/>
       <c r="B115" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G115" s="13"/>
     </row>
     <row r="116" spans="1:7" ht="15">
       <c r="A116" s="18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B116" s="18"/>
       <c r="C116" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="18"/>
@@ -3301,25 +3313,25 @@
     <row r="117" spans="1:7" ht="25.5">
       <c r="A117" s="13"/>
       <c r="B117" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13"/>
       <c r="F117" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="1:7" ht="30">
       <c r="A118" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B118" s="18"/>
       <c r="C118" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D118" s="18"/>
       <c r="E118" s="18"/>
@@ -3329,25 +3341,25 @@
     <row r="119" spans="1:7">
       <c r="A119" s="13"/>
       <c r="B119" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G119" s="13"/>
     </row>
     <row r="120" spans="1:7" ht="30">
       <c r="A120" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B120" s="18"/>
       <c r="C120" s="18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="18"/>
@@ -3357,25 +3369,25 @@
     <row r="121" spans="1:7" ht="25.5">
       <c r="A121" s="13"/>
       <c r="B121" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" ht="15">
       <c r="A122" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B122" s="18"/>
       <c r="C122" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="18"/>
@@ -3385,25 +3397,25 @@
     <row r="123" spans="1:7">
       <c r="A123" s="13"/>
       <c r="B123" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="1:7" ht="15">
       <c r="A124" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B124" s="18"/>
       <c r="C124" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="18"/>
@@ -3413,25 +3425,25 @@
     <row r="125" spans="1:7" ht="25.5">
       <c r="A125" s="13"/>
       <c r="B125" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
       <c r="F125" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7" ht="15">
       <c r="A126" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B126" s="18"/>
       <c r="C126" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D126" s="18"/>
       <c r="E126" s="18"/>
@@ -3441,25 +3453,25 @@
     <row r="127" spans="1:7">
       <c r="A127" s="13"/>
       <c r="B127" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13"/>
       <c r="F127" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" ht="15">
       <c r="A128" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B128" s="18"/>
       <c r="C128" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D128" s="18"/>
       <c r="E128" s="18"/>
@@ -3469,40 +3481,40 @@
     <row r="129" spans="1:7" ht="25.5">
       <c r="A129" s="13"/>
       <c r="B129" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
       <c r="F129" s="13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" ht="38.25">
       <c r="A130" s="13"/>
       <c r="B130" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
       <c r="F130" s="13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" ht="15">
       <c r="A131" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B131" s="18"/>
       <c r="C131" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D131" s="18"/>
       <c r="E131" s="18"/>
@@ -3512,25 +3524,25 @@
     <row r="132" spans="1:7">
       <c r="A132" s="13"/>
       <c r="B132" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
       <c r="F132" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" ht="15">
       <c r="A133" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B133" s="18"/>
       <c r="C133" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D133" s="18"/>
       <c r="E133" s="18"/>
@@ -3540,25 +3552,25 @@
     <row r="134" spans="1:7" ht="25.5">
       <c r="A134" s="13"/>
       <c r="B134" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" ht="30">
       <c r="A135" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B135" s="18"/>
       <c r="C135" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D135" s="18"/>
       <c r="E135" s="18"/>
@@ -3568,25 +3580,25 @@
     <row r="136" spans="1:7">
       <c r="A136" s="13"/>
       <c r="B136" s="13" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
       <c r="F136" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" ht="30">
       <c r="A137" s="18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B137" s="18"/>
       <c r="C137" s="18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="18"/>
@@ -3596,25 +3608,25 @@
     <row r="138" spans="1:7" ht="38.25">
       <c r="A138" s="13"/>
       <c r="B138" s="13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
       <c r="F138" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" ht="15">
       <c r="A139" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B139" s="18"/>
       <c r="C139" s="18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="18"/>
@@ -3624,25 +3636,25 @@
     <row r="140" spans="1:7">
       <c r="A140" s="13"/>
       <c r="B140" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
       <c r="F140" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G140" s="13"/>
     </row>
     <row r="141" spans="1:7" ht="15">
       <c r="A141" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B141" s="18"/>
       <c r="C141" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="18"/>
@@ -3652,28 +3664,28 @@
     <row r="142" spans="1:7" ht="25.5">
       <c r="A142" s="13"/>
       <c r="B142" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D142" s="13"/>
       <c r="E142" s="13"/>
       <c r="F142" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G142" s="13"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="31"/>
-      <c r="B143" s="31"/>
-      <c r="C143" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D143" s="31"/>
-      <c r="E143" s="31"/>
-      <c r="F143" s="31"/>
-      <c r="G143" s="31"/>
+      <c r="A143" s="22"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D143" s="22"/>
+      <c r="E143" s="22"/>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.31" right="0.28000000000000003" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3686,6 +3698,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068CA72A41D082544A95AB07860F23E9D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="340c01d888da5bab1431ab979f168ce4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d540c9db9cf7a444d73bdfc2a9c401e3">
     <xsd:element name="properties">
@@ -3799,33 +3826,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD470159-D4A7-4EF3-A9FB-682DA953D312}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7E42C1-EC76-4116-82B5-A276C98530F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3846,9 +3850,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7E42C1-EC76-4116-82B5-A276C98530F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD470159-D4A7-4EF3-A9FB-682DA953D312}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ScenariosTest_Codington.xlsx
+++ b/ScenariosTest_Codington.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="-15" windowWidth="4365" windowHeight="5040" tabRatio="422" activeTab="1"/>
+    <workbookView xWindow="10905" yWindow="-15" windowWidth="4245" windowHeight="5040" tabRatio="422" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Cover Sheet'!$A$1:$N$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Test Scenarios'!$A$1:$G$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Test Scenarios'!$A$1:$G$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Test Scenarios'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="234">
   <si>
     <t>Module 12 - Temperature Converter System</t>
   </si>
@@ -158,12 +158,6 @@
     <t>setDNI(52.101.041.S)</t>
   </si>
   <si>
-    <t>Se lanza una DomainException con el mensaje ""</t>
-  </si>
-  <si>
-    <t>Passed one parameter (Dni NO  VALID (letra  invalida)</t>
-  </si>
-  <si>
     <t>setDNI(52.101.041-T)</t>
   </si>
   <si>
@@ -218,27 +212,12 @@
     <t>TCS.UT.AP331.TS.007</t>
   </si>
   <si>
-    <t>Se lanza una DomainException con el mensaje "Could you repeat the last name please"</t>
-  </si>
-  <si>
-    <t>Se lanza una DomainException con el mensaje "Could you repeat the first name please"</t>
-  </si>
-  <si>
-    <t>Se asigna el valor del parametro al first name del User</t>
-  </si>
-  <si>
-    <t>Se asigna el valor del parametro al dni del User</t>
-  </si>
-  <si>
     <t>setPassword(Password no VALIDO)</t>
   </si>
   <si>
     <t>setPassword(Password valido)</t>
   </si>
   <si>
-    <t>Se lanza una DomainException con el mensaje "Could you repeat the password please"</t>
-  </si>
-  <si>
     <t>setConfirmPassword(ConfirmPassword valido)</t>
   </si>
   <si>
@@ -251,9 +230,6 @@
     <t>Passed one parameter (Password NO  VALID (formato invalido)</t>
   </si>
   <si>
-    <t>Se lanza una DomainException con el mensaje "Could you repeat the password please, it does not the same as the password"</t>
-  </si>
-  <si>
     <t>TCS.UT.AP331.TS.008</t>
   </si>
   <si>
@@ -305,18 +281,9 @@
     <t>Passed one parameter (User Name NO  VALID (formato invalido)</t>
   </si>
   <si>
-    <t>Se asigna el valor del parametro al confirm password del User</t>
-  </si>
-  <si>
     <t>Passed one parameter (Password VALID)</t>
   </si>
   <si>
-    <t>Se lanza una DomainException con el mensaje "Please, could you repeat your user name? It is not valid"</t>
-  </si>
-  <si>
-    <t>Se asigna el valor del parametro al username del User</t>
-  </si>
-  <si>
     <t>setChangePassword(ChangePassword valido)</t>
   </si>
   <si>
@@ -356,326 +323,449 @@
     <t>setBookEvent(BookEvent no VALIDO)</t>
   </si>
   <si>
-    <t>Se asigna el valor del parametro al Book Event de Visitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lanza una DomainException con el mensaje "Registration is not completed successfully"
+    <t>TCS.UT.AP331.TS.013.02</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.014.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.015.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.015.02</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.015</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.014</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.013</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.012</t>
+  </si>
+  <si>
+    <t>setDeleteBookEvent(DeleteBookEvent valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteBookEvent VALID)</t>
+  </si>
+  <si>
+    <t>setDeleteBookEvent(DeleteBookEvent no VALIDO)</t>
+  </si>
+  <si>
+    <t>End of Scenario</t>
+  </si>
+  <si>
+    <t>setModifyPersonalInformation(ModifyPersonalInformation valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyPersonalInformation VALID)</t>
+  </si>
+  <si>
+    <t>setModifyPersonalInformation(ModifyPersonalInformation no VALIDO)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyPersonalInformation NO  VALID (formato no valido))</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.016.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.017.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.016</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.017</t>
+  </si>
+  <si>
+    <t>Unit Test Stage - Admin</t>
+  </si>
+  <si>
+    <t>Initialize Admin</t>
+  </si>
+  <si>
+    <t>Passed one  parameters (Admin)</t>
+  </si>
+  <si>
+    <t>Admin()</t>
+  </si>
+  <si>
+    <t>Admin(Admin)</t>
+  </si>
+  <si>
+    <t>Admin(null)</t>
+  </si>
+  <si>
+    <t>setCreateEvent(CreateEvent valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (CreateEvent VALID)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (CreateEvent NO  VALID (mal ejecutado))</t>
+  </si>
+  <si>
+    <t>setCreateEvent(CreateEvent no VALIDO)</t>
+  </si>
+  <si>
+    <t>setDeleteEvent(DeleteEvent valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteEvent VALID)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteEvent NO  VALID (mal ejecutado))</t>
+  </si>
+  <si>
+    <t>setDeleteEvent(DeleteEvent no VALIDO)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteEvent NO  VALID ( hay ocupación))</t>
+  </si>
+  <si>
+    <t>setModifyEvent(ModifyEvent valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyEvent VALID)</t>
+  </si>
+  <si>
+    <t>setModifyEvent(ModifyEvent no VALIDO)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyEvent NO  VALID (mal ejecutado))</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.018</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.019</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.018.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.019.01</t>
+  </si>
+  <si>
+    <t>setSearchEvent(SearchEvent valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (SearchEvent VALID)</t>
+  </si>
+  <si>
+    <t>setSearchEvent(SearchEvent no VALIDO)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.017.02</t>
+  </si>
+  <si>
+    <t>setModifyPlace(ModifyPlace valido)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyPlace VALID)</t>
+  </si>
+  <si>
+    <t>setModifyPlacet(ModifyPlace no VALIDO)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyPlace NO  VALID (mal ejecutado))</t>
+  </si>
+  <si>
+    <t>Passed one parameter (user register )</t>
+  </si>
+  <si>
+    <t>Register User(User no VALIDO)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.013.03</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.020</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.020.01</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.021</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.021.01</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteVisitor VALID)</t>
+  </si>
+  <si>
+    <t>setDeleteVisitor(DeleteVisitor VALIDO )</t>
+  </si>
+  <si>
+    <t>setDeleteVisitor(DeleteVisitor no VALIDO )</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.004.02</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.010.02</t>
+  </si>
+  <si>
+    <t>Passed one parameter (User Name NO  VALID (invalid format)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (Password NO  VALID (invalid format)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ChangePassword NO  VALID (invalid format)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ModifyPersonalInformation NO  VALID (invalid format))</t>
+  </si>
+  <si>
+    <t>Passed one parameter (Dni NO  VALID (invalid format)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (First Name NO  VALID (invalid format)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (Last NO  VALID (invalid format)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.003.02</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.005.02</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.007.02</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.009.02</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.011.02</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.004.03</t>
+  </si>
+  <si>
+    <t>setDNI(null)</t>
+  </si>
+  <si>
+    <t>seFirstName(null)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.008.02</t>
+  </si>
+  <si>
+    <t>setLastName(null)</t>
+  </si>
+  <si>
+    <t>setUsername(null)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.012.02</t>
+  </si>
+  <si>
+    <t>setPassword(null)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.014.02</t>
+  </si>
+  <si>
+    <t>setConfirmPassword(null)</t>
+  </si>
+  <si>
+    <t>TCS.UT.AP331.TS.006.02</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ConfirmPassword NO  VALID (no coincidence))</t>
+  </si>
+  <si>
+    <t>Passed one parameter (ConfirmChangePassword NO  VALID (no coincidence))</t>
+  </si>
+  <si>
+    <t>Passed one parameter (BookEvent NO  VALID (bad executed))</t>
+  </si>
+  <si>
+    <t>Passed one parameter (BookEvent NO  VALID (no avalaibe seats))</t>
+  </si>
+  <si>
+    <t>Passed one parameter (BookEvent NO  VALID (already register))</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteBookEvent NO  VALID (bad execute))</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteBookEvent NO  VALID (no register))</t>
+  </si>
+  <si>
+    <t>Passed one parameter (SearchEvent NO  VALID (no exist))</t>
+  </si>
+  <si>
+    <t>Passed one parameter (SearchEvent NO  VALID (failure in the database))</t>
+  </si>
+  <si>
+    <t>Passed one parameter (DeleteVisitor NO  VALID (no execute))</t>
+  </si>
+  <si>
+    <t>Passed one parameter (Dni NO  VALID (invalid letter)</t>
+  </si>
+  <si>
+    <t>Passed one parameter (User Name NO  VALID (username already used)</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Please, could you repeat your user name? It is not valid"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Please, Could you fill the username gap?"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Could you repeat the password please"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Please, Could you fill the password gap?"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Could you repeat the password please, it does not the same as the password"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Please, Could you fill the Confirm password gap?"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Please, Could you fill the change password gap?"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Please, Could you fill the Confirm change password gap?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One DomainException is launched with the message "Registration is not completed successfully"
  </t>
   </si>
   <si>
-    <t>Passed one parameter (BookEvent NO  VALID (mal ejecutado))</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.013.02</t>
-  </si>
-  <si>
-    <t>Passed one parameter (BookEvent NO  VALID (sitios no disponibles))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lanza una DomainException con el mensaje "There are not vacances, It is completed"
+    <t xml:space="preserve">One DomainException is launched with the message "There are not vacances, It is completed"
  </t>
   </si>
   <si>
-    <t>TCS.UT.AP331.TS.014.01</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.015.01</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.015.02</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.015</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.014</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.013</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.012</t>
-  </si>
-  <si>
-    <t>setDeleteBookEvent(DeleteBookEvent valido)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (DeleteBookEvent VALID)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (DeleteBookEvent NO  VALID (mal ejecutado))</t>
-  </si>
-  <si>
-    <t>setDeleteBookEvent(DeleteBookEvent no VALIDO)</t>
-  </si>
-  <si>
-    <t>Se asigna el valor del parametro al Delete Book Event de Visitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The remove is not completed succesfully"
+    <t xml:space="preserve">One DomainException is launched with the message "You could not book in the event, because you are already register."
  </t>
   </si>
   <si>
-    <t>End of Scenario</t>
-  </si>
-  <si>
-    <t>setModifyPersonalInformation(ModifyPersonalInformation valido)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (ModifyPersonalInformation VALID)</t>
-  </si>
-  <si>
-    <t>setModifyPersonalInformation(ModifyPersonalInformation no VALIDO)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (ModifyPersonalInformation NO  VALID (formato no valido))</t>
-  </si>
-  <si>
-    <t>Se asigna el valor del parametro al ModifyPersonalInformation de Visitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The information is not changed. Could you repeat it, please?"
+    <t xml:space="preserve">One DomainException is launched with the message "The remove is not completed succesfully"
  </t>
   </si>
   <si>
-    <t>TCS.UT.AP331.TS.016.01</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.017.01</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.016</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.017</t>
-  </si>
-  <si>
-    <t>Unit Test Stage - Admin</t>
-  </si>
-  <si>
-    <t>Initialize Admin</t>
-  </si>
-  <si>
-    <t>Passed one  parameters (Admin)</t>
-  </si>
-  <si>
-    <t>Admin()</t>
-  </si>
-  <si>
-    <t>Admin(Admin)</t>
-  </si>
-  <si>
-    <t>Admin(null)</t>
-  </si>
-  <si>
-    <t>setCreateEvent(CreateEvent valido)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (CreateEvent VALID)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (CreateEvent NO  VALID (mal ejecutado))</t>
-  </si>
-  <si>
-    <t>setCreateEvent(CreateEvent no VALIDO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The new event is not created"
+    <t xml:space="preserve">One DomainException is launched with the message "You are not register in the event so you could not remove from it"
  </t>
   </si>
   <si>
-    <t>setDeleteEvent(DeleteEvent valido)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (DeleteEvent VALID)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (DeleteEvent NO  VALID (mal ejecutado))</t>
-  </si>
-  <si>
-    <t>Se asigna el valor del parametro al Delete  Event de Visitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The event is not removed"
+    <t xml:space="preserve">One DomainException is launched with the message "The event you look for it does not exist"
  </t>
   </si>
   <si>
-    <t>setDeleteEvent(DeleteEvent no VALIDO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lanza una DomainException con el mensaje "You could not remove the event, because there are targeted visitors"
+    <t xml:space="preserve">One DomainException is launched with the message "The page has problems, sorry we are resolving it. Please try again in few minutes"
  </t>
   </si>
   <si>
-    <t>Passed one parameter (DeleteEvent NO  VALID ( hay ocupación))</t>
-  </si>
-  <si>
-    <t>setModifyEvent(ModifyEvent valido)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (ModifyEvent VALID)</t>
-  </si>
-  <si>
-    <t>setModifyEvent(ModifyEvent no VALIDO)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (ModifyEvent NO  VALID (mal ejecutado))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The event is not modified"
+    <t xml:space="preserve">One DomainException is launched with the message "The information is not changed. Could you repeat it, please?"
  </t>
   </si>
   <si>
-    <t>Se asigna el valor del parametro al Modify Event de Visitor</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.018</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.019</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.018.01</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.019.01</t>
-  </si>
-  <si>
-    <t>setSearchEvent(SearchEvent valido)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (SearchEvent VALID)</t>
-  </si>
-  <si>
-    <t>setSearchEvent(SearchEvent no VALIDO)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (SearchEvent NO  VALID (no existe))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The event you look for it does not exist"
+    <t>One DomainException is launched with the message "The delete is not execute. Could you do it in few minutes, please?"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "You are register so you could not register again"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Please, Could you fill the DNI gap?"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Could you repeat the first name please"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Please, Could you fill the FisrtName gap?"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Could you repeat the last name please"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Please, Could you fill the LastName gap?"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Please, could you change your username because it is used for another user"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Please, Could you fill the Username gap?"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Could you repeat the password, please?"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Please, Could you fill the corfirm password gap?"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "Could you repeat your DNI, please?"</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message "The letter is wrong. Could you repeat your DNI, please?"</t>
+  </si>
+  <si>
+    <t>Is assigned the value of parameter to ModifyPlace</t>
+  </si>
+  <si>
+    <t>One DomainException is launched with the message"Please, Could you fill the Confirm change password gap?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One DomainException is launched with the message "The new event is not created"
  </t>
   </si>
   <si>
-    <t>TCS.UT.AP331.TS.017.02</t>
-  </si>
-  <si>
-    <t>Passed one parameter (SearchEvent NO  VALID (fallo base de datos))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The page has problems, sorry we are resolving it. Please try again in few minutes"
+    <t xml:space="preserve">One DomainException is launched with the message"The event is not removed"
  </t>
   </si>
   <si>
-    <t>setModifyPlace(ModifyPlace valido)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (ModifyPlace VALID)</t>
-  </si>
-  <si>
-    <t>setModifyPlacet(ModifyPlace no VALIDO)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (ModifyPlace NO  VALID (mal ejecutado))</t>
-  </si>
-  <si>
-    <t>Se asigna el valor del parametro al ModifyPlace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lanza una DomainException con el mensaje "The place is not modified"
+    <t xml:space="preserve">One DomainException is launched with the message "You could not remove the event, because there are targeted visitors"
  </t>
   </si>
   <si>
-    <t>Passed one parameter (DeleteBookEvent NO  VALID (no registrado))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lanza una DomainException con el mensaje "You are not register in the event so you could not remove from it"
+    <t xml:space="preserve">One DomainException is launched with the message "The event is not modified"
  </t>
   </si>
   <si>
-    <t>Passed one parameter (user register )</t>
-  </si>
-  <si>
-    <t>Register User(User no VALIDO)</t>
-  </si>
-  <si>
-    <t>Se lanza una DomainException con el mensaje "You are register so you could not register again"</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.013.03</t>
-  </si>
-  <si>
-    <t>Passed one parameter (BookEvent NO  VALID (registrado ya))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lanza una DomainException con el mensaje "You could not book in the event, because you are already register."
+    <t xml:space="preserve">One DomainException is launched with the message "The place is not modified"
  </t>
   </si>
   <si>
-    <t>Passed one parameter (User Name NO  VALID (username usado)</t>
-  </si>
-  <si>
-    <t>Se lanza una DomainException con el mensaje "Please, could you change your username because it is used for another user"</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.020</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.020.01</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.021</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.021.01</t>
-  </si>
-  <si>
-    <t>Passed one parameter (DeleteVisitor VALID)</t>
-  </si>
-  <si>
-    <t>setDeleteVisitor(DeleteVisitor VALIDO )</t>
-  </si>
-  <si>
-    <t>setDeleteVisitor(DeleteVisitor no VALIDO )</t>
-  </si>
-  <si>
-    <t>Passed one parameter (DeleteVisitor NO  VALID (no ejecutado))</t>
-  </si>
-  <si>
-    <t>Se lanza una DomainException con el mensaje "The delete is not execute. Could you do it in few minutes, please?"</t>
-  </si>
-  <si>
-    <t>Se asigna el valor del parametro al DeleteVisitor de Visitor</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.004.02</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.0010.01</t>
-  </si>
-  <si>
-    <t>TCS.UT.AP331.TS.010.02</t>
-  </si>
-  <si>
-    <t>Passed one parameter (User Name NO  VALID (invalid format)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (Password NO  VALID (invalid format)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (ChangePassword NO  VALID (invalid format)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (ModifyPersonalInformation NO  VALID (invalid format))</t>
-  </si>
-  <si>
-    <t>Passed one parameter (Dni NO  VALID (invalid format)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (First Name NO  VALID (invalid format)</t>
-  </si>
-  <si>
-    <t>Passed one parameter (Last NO  VALID (invalid format)</t>
+    <t>Is assigned the value of parameter to ModifyPersonalInformation of Visitor</t>
+  </si>
+  <si>
+    <t>Is assigned the value of parameter to Modify Event of Visitor</t>
+  </si>
+  <si>
+    <t>Is assigned the value of parameter to Delete  Event of Visitor</t>
+  </si>
+  <si>
+    <t>Is assigned the value of parameter to Book Event of Visitor</t>
+  </si>
+  <si>
+    <t>Is assigned the value of parameter to confirm password of User</t>
+  </si>
+  <si>
+    <t>Is assigned the value of parameter to username of User</t>
+  </si>
+  <si>
+    <t>Is assigned the value of parameter to first name of User</t>
+  </si>
+  <si>
+    <t>Is assigned the value of parameter to dni of User</t>
+  </si>
+  <si>
+    <t>Is assigned the value of parameter to DeleteVisitor of Visitor</t>
+  </si>
+  <si>
+    <t>Is assigned the value of parameter to Delete Book Event of Visitor</t>
   </si>
 </sst>
 </file>
@@ -1723,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G143"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1743,10 +1833,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34.5" customHeight="1">
@@ -1842,7 +1932,7 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -1855,12 +1945,12 @@
         <v>19</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="G9" s="13"/>
     </row>
@@ -1870,7 +1960,7 @@
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -1883,246 +1973,250 @@
         <v>33</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" ht="25.5">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="15">
-      <c r="A16" s="18" t="s">
+    <row r="12" spans="1:7" ht="25.5">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="A13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="15">
+      <c r="A15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" ht="25.5">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="25.5">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="15">
       <c r="A18" s="18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" ht="25.5">
+    <row r="19" spans="1:7">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="15">
       <c r="A20" s="18" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="18" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="25.5">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:7" ht="25.5">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" ht="15">
+      <c r="A23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" ht="15">
+      <c r="A25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" ht="25.5">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" ht="25.5">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" ht="30">
-      <c r="A24" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" ht="30">
-      <c r="A26" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
+      <c r="C26" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" ht="25.5">
       <c r="A27" s="13"/>
       <c r="B27" s="13" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" s="18" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="18" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -2132,154 +2226,154 @@
     <row r="29" spans="1:7">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7" ht="30">
       <c r="A30" s="18" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="1:7" ht="38.25">
+    <row r="31" spans="1:7" ht="25.5">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13" t="s">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:7" ht="38.25">
+    <row r="32" spans="1:7" ht="25.5">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:7" ht="38.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" ht="15">
-      <c r="A34" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" ht="15">
-      <c r="A36" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="19"/>
+    <row r="33" spans="1:7" ht="15">
+      <c r="A33" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="15">
+      <c r="A35" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" ht="38.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" ht="38.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="38.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" ht="15">
       <c r="A39" s="18" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -2289,25 +2383,25 @@
     <row r="40" spans="1:7">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>125</v>
+        <v>233</v>
       </c>
       <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" ht="15">
       <c r="A41" s="18" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -2317,40 +2411,40 @@
     <row r="42" spans="1:7" ht="38.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="38.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="1:7" ht="30">
+    <row r="44" spans="1:7" ht="15">
       <c r="A44" s="18" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -2360,25 +2454,25 @@
     <row r="45" spans="1:7">
       <c r="A45" s="13"/>
       <c r="B45" s="13" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="1:7" ht="30">
+    <row r="46" spans="1:7" ht="15">
       <c r="A46" s="18" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="18" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
@@ -2388,356 +2482,348 @@
     <row r="47" spans="1:7" ht="38.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13" t="s">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="15">
-      <c r="A48" s="18" t="s">
+    <row r="48" spans="1:7" ht="38.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13" t="s">
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" ht="30">
+      <c r="A49" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" s="13"/>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="1:7" ht="38.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="1:7" s="4" customFormat="1" ht="15">
+      <c r="A53" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G54" s="13"/>
+    </row>
+    <row r="55" spans="1:7" ht="15">
+      <c r="A55" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="1:7" ht="25.5">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="G49" s="13"/>
-    </row>
-    <row r="50" spans="1:7" ht="15">
-      <c r="A50" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7" ht="25.5">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="G51" s="13"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22" t="s">
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" s="13"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7" s="26" customFormat="1">
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" s="26" customFormat="1">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="1:7" s="26" customFormat="1">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A61" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A62" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A63" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="1:7" s="26" customFormat="1">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="54" spans="1:7" s="26" customFormat="1">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-    </row>
-    <row r="55" spans="1:7" s="26" customFormat="1">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-    </row>
-    <row r="56" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A56" s="17" t="s">
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+    </row>
+    <row r="64" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A57" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A58" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-    </row>
-    <row r="60" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-    </row>
-    <row r="62" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A62" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="G63" s="13"/>
-    </row>
-    <row r="64" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A64" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="19"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" ht="16.5" customHeight="1">
       <c r="A65" s="13"/>
       <c r="B65" s="13" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>58</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F65" s="13"/>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A66" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="19"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67" s="13"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="20"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A67" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="19"/>
+    </row>
+    <row r="68" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A68" s="13"/>
       <c r="B68" s="13" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" s="21"/>
-    </row>
-    <row r="69" spans="1:7" ht="15">
+        <v>205</v>
+      </c>
+      <c r="G68" s="13"/>
+    </row>
+    <row r="69" spans="1:7" ht="16.5" customHeight="1">
       <c r="A69" s="18" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
       <c r="G69" s="19"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" ht="16.5" customHeight="1">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="F70" s="13" t="s">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="G70" s="13"/>
     </row>
-    <row r="71" spans="1:7" ht="15">
+    <row r="71" spans="1:7" ht="16.5" customHeight="1">
       <c r="A71" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="18" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
@@ -2747,591 +2833,625 @@
     <row r="72" spans="1:7" ht="25.5">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
+        <v>157</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="F72" s="13" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="G72" s="13"/>
     </row>
-    <row r="73" spans="1:7" ht="15">
-      <c r="A73" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="19"/>
-    </row>
-    <row r="74" spans="1:7">
+    <row r="73" spans="1:7" ht="25.5">
+      <c r="A73" s="20"/>
+      <c r="B73" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G73" s="21"/>
+    </row>
+    <row r="74" spans="1:7" ht="16.5" customHeight="1">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="F74" s="13" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" ht="15">
       <c r="A75" s="18" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B75" s="18"/>
       <c r="C75" s="18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
       <c r="G75" s="19"/>
     </row>
-    <row r="76" spans="1:7" ht="25.5">
+    <row r="76" spans="1:7">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13"/>
       <c r="F76" s="13" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" ht="15">
       <c r="A77" s="18" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B77" s="18"/>
       <c r="C77" s="18" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
       <c r="F77" s="18"/>
       <c r="G77" s="19"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" ht="25.5">
       <c r="A78" s="13"/>
       <c r="B78" s="13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
       <c r="F78" s="13" t="s">
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="G78" s="13"/>
     </row>
-    <row r="79" spans="1:7" ht="15">
-      <c r="A79" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="19"/>
-    </row>
-    <row r="80" spans="1:7" ht="25.5">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" s="13"/>
-    </row>
-    <row r="81" spans="1:7" ht="25.5">
+    <row r="79" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" spans="1:7" ht="15">
+      <c r="A80" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="19"/>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="13"/>
       <c r="B81" s="13" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13"/>
       <c r="F81" s="13" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" ht="15">
       <c r="A82" s="18" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="18" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
       <c r="F82" s="18"/>
       <c r="G82" s="19"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" ht="25.5">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="13" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="1:7" ht="15">
-      <c r="A84" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="19"/>
-    </row>
-    <row r="85" spans="1:7" ht="25.5">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13" t="s">
+    <row r="84" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="1:7" ht="15">
+      <c r="A85" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="19"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="1:7" ht="15">
+      <c r="A87" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G85" s="13"/>
-    </row>
-    <row r="86" spans="1:7" ht="15">
-      <c r="A86" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="19"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G87" s="13"/>
-    </row>
-    <row r="88" spans="1:7" ht="15">
-      <c r="A88" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="19"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="19"/>
+    </row>
+    <row r="88" spans="1:7" ht="25.5">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G88" s="13"/>
     </row>
     <row r="89" spans="1:7" ht="25.5">
       <c r="A89" s="13"/>
       <c r="B89" s="13" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13"/>
       <c r="F89" s="13" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="G89" s="13"/>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-    </row>
-    <row r="96" spans="1:7" ht="15.75">
-      <c r="A96" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A97" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="4" customFormat="1" ht="15">
+    <row r="90" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G90" s="13"/>
+    </row>
+    <row r="91" spans="1:7" ht="15">
+      <c r="A91" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="19"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="1:7" ht="15">
+      <c r="A93" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="19"/>
+    </row>
+    <row r="94" spans="1:7" ht="25.5">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G95" s="13"/>
+    </row>
+    <row r="96" spans="1:7" ht="15">
+      <c r="A96" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="19"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="1:7" ht="15">
       <c r="A98" s="18" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B98" s="18"/>
       <c r="C98" s="18" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="18"/>
       <c r="F98" s="18"/>
       <c r="G98" s="19"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" ht="25.5">
       <c r="A99" s="13"/>
       <c r="B99" s="13" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F99" s="13"/>
+        <v>176</v>
+      </c>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13" t="s">
+        <v>192</v>
+      </c>
       <c r="G99" s="13"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" ht="16.5" customHeight="1">
       <c r="A100" s="13"/>
       <c r="B100" s="13" t="s">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D100" s="13"/>
       <c r="E100" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F100" s="13"/>
+        <v>174</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>214</v>
+      </c>
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-    </row>
-    <row r="102" spans="1:7" ht="15">
-      <c r="A102" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="19"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G103" s="13"/>
-    </row>
-    <row r="104" spans="1:7" ht="15">
-      <c r="A104" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="19"/>
-    </row>
-    <row r="105" spans="1:7" ht="25.5">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G105" s="13"/>
-    </row>
-    <row r="106" spans="1:7" ht="15">
-      <c r="A106" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="19"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G107" s="13"/>
-    </row>
-    <row r="108" spans="1:7" ht="15">
-      <c r="A108" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="19"/>
-    </row>
-    <row r="109" spans="1:7" ht="25.5">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G109" s="13"/>
-    </row>
-    <row r="110" spans="1:7" ht="15">
-      <c r="A110" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="19"/>
+      <c r="A101" s="22"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+    </row>
+    <row r="107" spans="1:7" ht="15.75">
+      <c r="A107" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A108" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="4" customFormat="1" ht="15">
+      <c r="A109" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="19"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="13"/>
       <c r="B111" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="13"/>
+      <c r="B112" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+    </row>
+    <row r="113" spans="1:7" ht="15">
+      <c r="A113" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="19"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="13"/>
+      <c r="B114" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C111" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G111" s="13"/>
-    </row>
-    <row r="112" spans="1:7" ht="15">
-      <c r="A112" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="19"/>
-    </row>
-    <row r="113" spans="1:7" ht="25.5">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13" t="s">
+      <c r="D114" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="G114" s="13"/>
+    </row>
+    <row r="115" spans="1:7" ht="15">
+      <c r="A115" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C113" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G113" s="13"/>
-    </row>
-    <row r="114" spans="1:7" ht="15">
-      <c r="A114" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="19"/>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13" t="s">
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="19"/>
+    </row>
+    <row r="116" spans="1:7" ht="25.5">
+      <c r="A116" s="13"/>
+      <c r="B116" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C115" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G115" s="13"/>
-    </row>
-    <row r="116" spans="1:7" ht="15">
-      <c r="A116" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="19"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" ht="25.5">
       <c r="A117" s="13"/>
       <c r="B117" s="13" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
+        <v>25</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="F117" s="13" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="G117" s="13"/>
     </row>
-    <row r="118" spans="1:7" ht="30">
+    <row r="118" spans="1:7" ht="15">
       <c r="A118" s="18" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B118" s="18"/>
       <c r="C118" s="18" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="D118" s="18"/>
       <c r="E118" s="18"/>
@@ -3341,25 +3461,25 @@
     <row r="119" spans="1:7">
       <c r="A119" s="13"/>
       <c r="B119" s="13" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="G119" s="13"/>
     </row>
-    <row r="120" spans="1:7" ht="30">
+    <row r="120" spans="1:7" ht="15">
       <c r="A120" s="18" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B120" s="18"/>
       <c r="C120" s="18" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="18"/>
@@ -3369,323 +3489,555 @@
     <row r="121" spans="1:7" ht="25.5">
       <c r="A121" s="13"/>
       <c r="B121" s="13" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G121" s="13"/>
+    </row>
+    <row r="122" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A122" s="13"/>
+      <c r="B122" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D122" s="13"/>
+      <c r="E122" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G122" s="13"/>
+    </row>
+    <row r="123" spans="1:7" ht="15">
+      <c r="A123" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="19"/>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="13"/>
+      <c r="B124" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G124" s="13"/>
+    </row>
+    <row r="125" spans="1:7" ht="15">
+      <c r="A125" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="19"/>
+    </row>
+    <row r="126" spans="1:7" ht="25.5">
+      <c r="A126" s="13"/>
+      <c r="B126" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G121" s="13"/>
-    </row>
-    <row r="122" spans="1:7" ht="15">
-      <c r="A122" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B122" s="18"/>
-      <c r="C122" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="19"/>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="13"/>
-      <c r="B123" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G123" s="13"/>
-    </row>
-    <row r="124" spans="1:7" ht="15">
-      <c r="A124" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="19"/>
-    </row>
-    <row r="125" spans="1:7" ht="25.5">
-      <c r="A125" s="13"/>
-      <c r="B125" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G125" s="13"/>
-    </row>
-    <row r="126" spans="1:7" ht="15">
-      <c r="A126" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="19"/>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="C126" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G126" s="13"/>
+    </row>
+    <row r="127" spans="1:7" ht="16.5" customHeight="1">
       <c r="A127" s="13"/>
       <c r="B127" s="13" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
+      <c r="E127" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="F127" s="13" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" ht="15">
       <c r="A128" s="18" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="B128" s="18"/>
       <c r="C128" s="18" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="D128" s="18"/>
       <c r="E128" s="18"/>
       <c r="F128" s="18"/>
       <c r="G128" s="19"/>
     </row>
-    <row r="129" spans="1:7" ht="25.5">
+    <row r="129" spans="1:7">
       <c r="A129" s="13"/>
       <c r="B129" s="13" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13"/>
       <c r="F129" s="13" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
       <c r="G129" s="13"/>
     </row>
-    <row r="130" spans="1:7" ht="38.25">
-      <c r="A130" s="13"/>
-      <c r="B130" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G130" s="13"/>
-    </row>
-    <row r="131" spans="1:7" ht="15">
-      <c r="A131" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="19"/>
-    </row>
-    <row r="132" spans="1:7">
+    <row r="130" spans="1:7" ht="15">
+      <c r="A130" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="19"/>
+    </row>
+    <row r="131" spans="1:7" ht="25.5">
+      <c r="A131" s="13"/>
+      <c r="B131" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D131" s="13"/>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G131" s="13"/>
+    </row>
+    <row r="132" spans="1:7" ht="25.5">
       <c r="A132" s="13"/>
       <c r="B132" s="13" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="13"/>
       <c r="F132" s="13" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="G132" s="13"/>
     </row>
-    <row r="133" spans="1:7" ht="15">
+    <row r="133" spans="1:7" ht="30">
       <c r="A133" s="18" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="B133" s="18"/>
       <c r="C133" s="18" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="D133" s="18"/>
       <c r="E133" s="18"/>
       <c r="F133" s="18"/>
       <c r="G133" s="19"/>
     </row>
-    <row r="134" spans="1:7" ht="25.5">
+    <row r="134" spans="1:7">
       <c r="A134" s="13"/>
       <c r="B134" s="13" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" ht="30">
       <c r="A135" s="18" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="B135" s="18"/>
       <c r="C135" s="18" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D135" s="18"/>
       <c r="E135" s="18"/>
       <c r="F135" s="18"/>
       <c r="G135" s="19"/>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" ht="25.5">
       <c r="A136" s="13"/>
       <c r="B136" s="13" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13"/>
       <c r="F136" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G136" s="13"/>
+    </row>
+    <row r="137" spans="1:7" ht="25.5">
+      <c r="A137" s="13"/>
+      <c r="B137" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G137" s="13"/>
+    </row>
+    <row r="138" spans="1:7" ht="15">
+      <c r="A138" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="19"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="13"/>
+      <c r="B139" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" s="13"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G139" s="13"/>
+    </row>
+    <row r="140" spans="1:7" ht="15">
+      <c r="A140" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="19"/>
+    </row>
+    <row r="141" spans="1:7" ht="25.5">
+      <c r="A141" s="13"/>
+      <c r="B141" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G141" s="13"/>
+    </row>
+    <row r="142" spans="1:7" ht="15">
+      <c r="A142" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B142" s="18"/>
+      <c r="C142" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="19"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="13"/>
+      <c r="B143" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="G143" s="13"/>
+    </row>
+    <row r="144" spans="1:7" ht="15">
+      <c r="A144" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="19"/>
+    </row>
+    <row r="145" spans="1:7" ht="25.5">
+      <c r="A145" s="13"/>
+      <c r="B145" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D145" s="13"/>
+      <c r="E145" s="13"/>
+      <c r="F145" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G145" s="13"/>
+    </row>
+    <row r="146" spans="1:7" ht="38.25">
+      <c r="A146" s="13"/>
+      <c r="B146" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G146" s="13"/>
+    </row>
+    <row r="147" spans="1:7" ht="15">
+      <c r="A147" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B147" s="18"/>
+      <c r="C147" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G136" s="13"/>
-    </row>
-    <row r="137" spans="1:7" ht="30">
-      <c r="A137" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="19"/>
-    </row>
-    <row r="138" spans="1:7" ht="38.25">
-      <c r="A138" s="13"/>
-      <c r="B138" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13" t="s">
+      <c r="D147" s="18"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="19"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="13"/>
+      <c r="B148" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C148" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G138" s="13"/>
-    </row>
-    <row r="139" spans="1:7" ht="15">
-      <c r="A139" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="19"/>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" s="13"/>
-      <c r="B140" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G140" s="13"/>
-    </row>
-    <row r="141" spans="1:7" ht="15">
-      <c r="A141" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="19"/>
-    </row>
-    <row r="142" spans="1:7" ht="25.5">
-      <c r="A142" s="13"/>
-      <c r="B142" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G142" s="13"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="22"/>
-      <c r="B143" s="22"/>
-      <c r="C143" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D143" s="22"/>
-      <c r="E143" s="22"/>
-      <c r="F143" s="22"/>
-      <c r="G143" s="22"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G148" s="13"/>
+    </row>
+    <row r="149" spans="1:7" ht="15">
+      <c r="A149" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="19"/>
+    </row>
+    <row r="150" spans="1:7" ht="25.5">
+      <c r="A150" s="13"/>
+      <c r="B150" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="G150" s="13"/>
+    </row>
+    <row r="151" spans="1:7" ht="30">
+      <c r="A151" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B151" s="18"/>
+      <c r="C151" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="19"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="13"/>
+      <c r="B152" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G152" s="13"/>
+    </row>
+    <row r="153" spans="1:7" ht="30">
+      <c r="A153" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="19"/>
+    </row>
+    <row r="154" spans="1:7" ht="38.25">
+      <c r="A154" s="13"/>
+      <c r="B154" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D154" s="13"/>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G154" s="13"/>
+    </row>
+    <row r="155" spans="1:7" ht="15">
+      <c r="A155" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="19"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="13"/>
+      <c r="B156" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G156" s="13"/>
+    </row>
+    <row r="157" spans="1:7" ht="15">
+      <c r="A157" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B157" s="18"/>
+      <c r="C157" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="19"/>
+    </row>
+    <row r="158" spans="1:7" ht="25.5">
+      <c r="A158" s="13"/>
+      <c r="B158" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G158" s="13"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="22"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D159" s="22"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.31" right="0.28000000000000003" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3698,21 +4050,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068CA72A41D082544A95AB07860F23E9D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="340c01d888da5bab1431ab979f168ce4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d540c9db9cf7a444d73bdfc2a9c401e3">
     <xsd:element name="properties">
@@ -3826,10 +4163,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7E42C1-EC76-4116-82B5-A276C98530F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD470159-D4A7-4EF3-A9FB-682DA953D312}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3850,17 +4210,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD470159-D4A7-4EF3-A9FB-682DA953D312}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7E42C1-EC76-4116-82B5-A276C98530F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/ScenariosTest_Codington.xlsx
+++ b/ScenariosTest_Codington.xlsx
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="G83" s="13"/>
     </row>
-    <row r="84" spans="1:7" ht="16.5" customHeight="1">
+    <row r="84" spans="1:7" ht="33" customHeight="1">
       <c r="A84" s="13"/>
       <c r="B84" s="13" t="s">
         <v>168</v>
@@ -3046,7 +3046,7 @@
       <c r="F85" s="18"/>
       <c r="G85" s="19"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" ht="28.5" customHeight="1">
       <c r="A86" s="13"/>
       <c r="B86" s="13" t="s">
         <v>68</v>
@@ -4050,6 +4050,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068CA72A41D082544A95AB07860F23E9D" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="340c01d888da5bab1431ab979f168ce4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d540c9db9cf7a444d73bdfc2a9c401e3">
     <xsd:element name="properties">
@@ -4163,33 +4178,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD470159-D4A7-4EF3-A9FB-682DA953D312}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7E42C1-EC76-4116-82B5-A276C98530F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4210,9 +4202,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7E42C1-EC76-4116-82B5-A276C98530F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD470159-D4A7-4EF3-A9FB-682DA953D312}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>